--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1541.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1541.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175810469082768</v>
+        <v>1.6468346118927</v>
       </c>
       <c r="B1">
-        <v>1.764791381190626</v>
+        <v>2.909249305725098</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.695108413696289</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.401321053504944</v>
       </c>
       <c r="E1">
-        <v>1.075317662114242</v>
+        <v>0.8185690641403198</v>
       </c>
     </row>
   </sheetData>
